--- a/app/リリース/RSSReaderLITE説明書_160530.xlsx
+++ b/app/リリース/RSSReaderLITE説明書_160530.xlsx
@@ -1761,50 +1761,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>138075</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1824,7 +1780,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1947,50 +1903,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12039600" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2010,7 +1922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7615,7 +7527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G313"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/app/リリース/RSSReaderLITE説明書_160530.xlsx
+++ b/app/リリース/RSSReaderLITE説明書_160530.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -1108,22 +1108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アプリ開発学習のため、一般非公開を前提にhttp://www.drk7.jp/weather/から情報を転用させていただいています。</t>
-    <rPh sb="3" eb="5">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>テンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>注意</t>
     <rPh sb="0" eb="2">
       <t>チュウイ</t>
@@ -1505,25 +1489,6 @@
     </rPh>
     <rPh sb="108" eb="110">
       <t>ゲンジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学習目的で、NHK、livedoor、www.drk7.jp等のWEB情報を使用させていただいております。</t>
-    <rPh sb="0" eb="2">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1613,7 +1578,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2237,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2303,13 +2267,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -2320,13 +2282,13 @@
     <row r="11" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -2492,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2506,7 +2468,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4947,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G313"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5014,7 +4976,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5028,7 +4990,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5041,10 +5003,10 @@
         <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5058,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -7527,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G313"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7567,9 +7529,7 @@
       <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
@@ -7582,7 +7542,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
